--- a/dtpu_configurations/only_integer16/50mhz/mxu_16x16/timing.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/mxu_16x16/timing.xlsx
@@ -119,10 +119,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>2.2604353427886963</v>
+        <v>0.47201353311538696</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>0.021853851154446602</v>
+        <v>0.007992717437446117</v>
       </c>
     </row>
   </sheetData>
